--- a/nutrition_report.xlsx
+++ b/nutrition_report.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -444,22 +444,14 @@
           <t>Number</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Final Score</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Tomato paste</t>
+          <t>011110119681</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5</v>
-      </c>
-      <c r="C2" t="n">
         <v>5</v>
       </c>
     </row>
